--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -451,603 +451,813 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>009989</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>华宝研究精选混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>71.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5488</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>040004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安宝利配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>040005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安宏利混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>88.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001495</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方新价值混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>240009</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝先进成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501063</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富悦享定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>84.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002162</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方新价值混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>213008</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>宝盈资源优选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004166</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>24.90</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007686</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方价值挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007687</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方成长收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>24.37</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007639</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>400013</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东方成长收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>24.37</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002746</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>72.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>28.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.56</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009737</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富稳健收益混合C</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>72.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007639</t>
+          <t>009737</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+          <t>汇添富稳健收益混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>72.89</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4978</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>001725</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>汇添富中国高端制造股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1276,15 +1556,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>73.49</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000328</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根转型动力混合</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>002746</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>汇添富多策略定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>67.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>000328</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>上投摩根转型动力混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>75.69</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001656</t>
+          <t>580005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>农银汇理中国优势灵活配置混合</t>
+          <t>东吴进取策略混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>80.63</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001725</t>
+          <t>001656</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇添富中国高端制造股票</t>
+          <t>农银汇理中国优势灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>84.45</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>580005</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴进取策略混合</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>65.34</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1584,15 +1974,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>43.95</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>43.95</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002746</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>67.24</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2626,4 +2627,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1575</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3139,4 +3140,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.93</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.05</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.77</v>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3227,13 +3314,759 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
       <c r="D5" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
         <v>9.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3965,7 +3966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3976,17 +3977,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3996,14 +4017,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.11</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4012,14 +4055,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.93</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4028,14 +4093,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.05</v>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7964</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4044,14 +4131,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.77</v>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4060,13 +4169,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>20</v>
       </c>
       <c r="D6" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
         <v>9.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4706,7 +4707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4717,17 +4718,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4737,14 +4758,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.58</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4753,14 +4796,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.11</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6721</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4769,14 +4834,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.93</v>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4785,14 +4872,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.05</v>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4801,14 +4910,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.77</v>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4817,13 +4948,713 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002182</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东兴蓝海财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>20</v>
       </c>
       <c r="D7" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
         <v>9.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5.67</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>4.58</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>4.11</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>15.93</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>5.05</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>6.77</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>20</v>
       </c>
       <c r="D8" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
         <v>9.77</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2969,7 +3422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3481,7 +3934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4023,822 +4476,6 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009736</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富稳健收益混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>73.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1430</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0553</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010338</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6864</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007639</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5826</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009737</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富稳健收益混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4978</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001725</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中国高端制造股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4935</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>73.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4435</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010423</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>74.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3880</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3670</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>74.70</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3247</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002746</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>67.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2707</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000328</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上投摩根转型动力混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>84.16</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1620</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501063</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富悦享定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>75.69</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010339</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>59.35</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>580005</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东吴进取策略混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>65.34</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001656</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>农银汇理中国优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>80.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010424</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>74.94</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>43.95</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>43.95</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001849</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源强势共识100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4904,6 +4541,822 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4978</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>43.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>213008</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
+++ b/数据整理/stocks/A股/深证主板/001914-招商积余.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>3.35</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.67</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>4.58</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>4.11</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>15.93</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>5.05</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>6.77</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,846 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>20</v>
       </c>
       <c r="D9" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
         <v>9.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5488</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1450,782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003106</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1866,7 +3475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2606,7 +4215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3422,7 +5031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3934,7 +5543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4476,822 +6085,6 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009736</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富稳健收益混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>73.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1430</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0553</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010338</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6864</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007639</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5826</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009737</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富稳健收益混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4978</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001725</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中国高端制造股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4935</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>73.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4435</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010423</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>74.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3880</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3670</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>74.70</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3247</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002746</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>67.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2707</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000328</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上投摩根转型动力混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>84.16</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1620</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501063</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富悦享定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>75.69</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010339</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银远见成长混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>59.35</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>580005</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东吴进取策略混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>65.34</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001656</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>农银汇理中国优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>80.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010424</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>74.94</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>43.95</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>43.95</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001849</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源强势共识100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5357,36 +6150,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>009736</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>汇添富稳健收益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>73.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2363</t>
+          <t>1.1430</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5405,26 +6198,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.07</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>84.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2182</t>
+          <t>1.0553</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5433,36 +6226,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009989</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝研究精选混合</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.86</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71.85</t>
+          <t>59.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1949</t>
+          <t>0.6864</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5471,36 +6264,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040005</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安宏利混合</t>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>72.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1779</t>
+          <t>0.5826</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5509,36 +6302,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040004</t>
+          <t>009737</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安宝利配置混合</t>
+          <t>汇添富稳健收益混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.81</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.41</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1292</t>
+          <t>0.4978</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5547,32 +6340,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>240009</t>
+          <t>001725</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝先进成长混合</t>
+          <t>汇添富中国高端制造股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>84.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5488</t>
+          <t>0.4935</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -5595,26 +6388,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.07</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.23</t>
+          <t>73.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5473</t>
+          <t>0.4435</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -5623,36 +6416,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>74.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5327</t>
+          <t>0.3880</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -5661,36 +6454,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>72.13</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3695</t>
+          <t>0.3670</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -5699,36 +6492,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007639</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>74.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3665</t>
+          <t>0.3247</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -5737,36 +6530,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501063</t>
+          <t>002746</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富悦享定期开放混合</t>
+          <t>汇添富多策略定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.07</t>
+          <t>67.24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3654</t>
+          <t>0.2707</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -5775,36 +6568,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002746</t>
+          <t>000328</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富多策略定期开放灵活配置混合</t>
+          <t>上投摩根转型动力混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.01</t>
+          <t>84.16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3232</t>
+          <t>0.1620</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -5813,36 +6606,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>501063</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>汇添富悦享定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>75.69</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1865</t>
+          <t>0.1509</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -5851,36 +6644,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001495</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方新价值混合A</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>34.53</t>
+          <t>59.35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1658</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -5889,36 +6682,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004166</t>
+          <t>580005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合A</t>
+          <t>东吴进取策略混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.90</t>
+          <t>65.34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1657</t>
+          <t>0.0458</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -5927,36 +6720,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>001656</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>农银汇理中国优势灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>80.63</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0790</t>
+          <t>0.0424</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -5965,36 +6758,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002162</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方新价值混合C</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>34.53</t>
+          <t>74.94</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -6003,36 +6796,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>400013</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东方成长收益灵活配置混合A</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24.37</t>
+          <t>43.95</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -6041,36 +6834,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007687</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方成长收益灵活配置混合C</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24.37</t>
+          <t>43.95</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -6079,36 +6872,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007686</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东方价值挖掘灵活配置混合C</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24.90</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0160</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
